--- a/data/cpi/SAINC-Industry-Archive Category.xlsx
+++ b/data/cpi/SAINC-Industry-Archive Category.xlsx
@@ -14,8 +14,10 @@
   <sheets>
     <sheet name="SAINC" sheetId="2" r:id="rId1"/>
     <sheet name="cpiFiles" sheetId="3" r:id="rId2"/>
+    <sheet name="archive" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">archive!$A$1:$A$386</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">cpiFiles!$A$1:$B$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SAINC!$A$1:$H$119</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">SAINC!$B$1</definedName>
@@ -30,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="573">
   <si>
     <t>Total employment (number of jobs)</t>
   </si>
@@ -591,13 +593,1171 @@
   </si>
   <si>
     <t>Food manufacturing</t>
+  </si>
+  <si>
+    <t>All items - old base</t>
+  </si>
+  <si>
+    <t>Purchasing power of the consumer dollar - old base</t>
+  </si>
+  <si>
+    <t>All items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All items less food </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All items less food and shelter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All items less food and energy  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All items less shelter  </t>
+  </si>
+  <si>
+    <t>All items less medical care</t>
+  </si>
+  <si>
+    <t>All items less energy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Purchasing power of the consumer dollar </t>
+  </si>
+  <si>
+    <t>Apparel less footwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apparel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men's and boys' apparel </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's and girls' apparel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commodities </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy commodities  </t>
+  </si>
+  <si>
+    <t>Commodities less food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commodities less food and beverages </t>
+  </si>
+  <si>
+    <t>Commodities less food and energy commodities</t>
+  </si>
+  <si>
+    <t>Durables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education and communication </t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information and information processing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Education and communication commodities </t>
+  </si>
+  <si>
+    <t>Education and communication services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food and beverages  </t>
+  </si>
+  <si>
+    <t>Food</t>
+  </si>
+  <si>
+    <t>Food at home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereals and bakery products </t>
+  </si>
+  <si>
+    <t>Meats</t>
+  </si>
+  <si>
+    <t>Fruits and vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh fruits and vegetables </t>
+  </si>
+  <si>
+    <t>Nonalcoholic beverages and beverage materials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other food at home  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcoholic beverages </t>
+  </si>
+  <si>
+    <t>Other goods and services</t>
+  </si>
+  <si>
+    <t>Personal care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other goods </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other personal services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Housing </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shelter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fuels and utilities </t>
+  </si>
+  <si>
+    <t>Household energy</t>
+  </si>
+  <si>
+    <t>Household furnishings and operations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household furnishings and supplies  </t>
+  </si>
+  <si>
+    <t>Medical care</t>
+  </si>
+  <si>
+    <t>Medical care commodities</t>
+  </si>
+  <si>
+    <t>Medical care services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nondurables </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Domestically produced farm food </t>
+  </si>
+  <si>
+    <t>Nondurables less food</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nondurables less food and beverages </t>
+  </si>
+  <si>
+    <t>Nondurables less food and apparel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreation commodities  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreation services </t>
+  </si>
+  <si>
+    <t>Services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utilities and public transportation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rent of shelter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other services  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation services </t>
+  </si>
+  <si>
+    <t>Services less rent of shelter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services less medical care services </t>
+  </si>
+  <si>
+    <t>Services less energy services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private transportation  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transportation commodities less motor fuel  </t>
+  </si>
+  <si>
+    <t>Men's apparel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men's suits </t>
+  </si>
+  <si>
+    <t>Men's furnishings</t>
+  </si>
+  <si>
+    <t>Men's shirts and sweaters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men's pants and shorts  </t>
+  </si>
+  <si>
+    <t>Boys' apparel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's apparel </t>
+  </si>
+  <si>
+    <t>Women's outerwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's dresses </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Women's suits and separates </t>
+  </si>
+  <si>
+    <t>Women's underwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girls' apparel  </t>
+  </si>
+  <si>
+    <t>Footwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Men's footwear  </t>
+  </si>
+  <si>
+    <t>Boys' and girls' footwear</t>
+  </si>
+  <si>
+    <t>Women's footwear</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infants' and toddlers' apparel  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jewelry and watches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Watches </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jewelry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Educational books and supplies  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuition </t>
+  </si>
+  <si>
+    <t>College tuition and fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elementary and high school tuition and fees </t>
+  </si>
+  <si>
+    <t>Child care and nursery school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Technical and business school tuition and fees  </t>
+  </si>
+  <si>
+    <t>Postage and delivery services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Postage </t>
+  </si>
+  <si>
+    <t>Delivery services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone services  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wireless telephone services </t>
+  </si>
+  <si>
+    <t>Land-line telephone services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information technology  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal computers and peripheral equipment </t>
+  </si>
+  <si>
+    <t>Computer software and accessories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internet services and electronic information providers  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Telephone hardware  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Information technology commodities  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cereals and cereal products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flour and prepared flour mixes  </t>
+  </si>
+  <si>
+    <t>Breakfast cereal</t>
+  </si>
+  <si>
+    <t>Rice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakery products </t>
+  </si>
+  <si>
+    <t>Bread</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh biscuits  </t>
+  </si>
+  <si>
+    <t>Cakes</t>
+  </si>
+  <si>
+    <t>Other bakery products</t>
+  </si>
+  <si>
+    <t>Beef and veal</t>
+  </si>
+  <si>
+    <t>Uncooked ground beef</t>
+  </si>
+  <si>
+    <t>Uncooked beef roasts</t>
+  </si>
+  <si>
+    <t>Uncooked beef steaks</t>
+  </si>
+  <si>
+    <t>Uncooked other beef and veal</t>
+  </si>
+  <si>
+    <t>Pork</t>
+  </si>
+  <si>
+    <t>Bacon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ham </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pork chops  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other pork including roasts and picnics </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other meats </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poultry </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other poultry including turkey  </t>
+  </si>
+  <si>
+    <t>Fish and seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh fish and seafood  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed fish and seafood  </t>
+  </si>
+  <si>
+    <t>Eggs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dairy and related products  </t>
+  </si>
+  <si>
+    <t>Milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheese and related products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ice cream and related products  </t>
+  </si>
+  <si>
+    <t>Other dairy and related products</t>
+  </si>
+  <si>
+    <t>Fresh fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Apples  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bananas </t>
+  </si>
+  <si>
+    <t>Citrus fruits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other fresh fruits  </t>
+  </si>
+  <si>
+    <t>Fresh vegetables</t>
+  </si>
+  <si>
+    <t>Potatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lettuce </t>
+  </si>
+  <si>
+    <t>Tomatoes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other fresh vegetables  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Processed fruits and vegetables </t>
+  </si>
+  <si>
+    <t>Canned fruits and vegetables</t>
+  </si>
+  <si>
+    <t>Frozen fruits and vegetables</t>
+  </si>
+  <si>
+    <t>Other processed fruits and vegetables including dried</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juices and nonalcoholic drinks  </t>
+  </si>
+  <si>
+    <t>Carbonated drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen noncarbonated juices and drinks  </t>
+  </si>
+  <si>
+    <t>Nonfrozen noncarbonated juices and drinks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beverage materials including coffee and tea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coffee  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other beverage materials including tea  </t>
+  </si>
+  <si>
+    <t>Sugar and sweets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sugar and artificial sweeteners </t>
+  </si>
+  <si>
+    <t>Candy and chewing gum</t>
+  </si>
+  <si>
+    <t>Other sweets</t>
+  </si>
+  <si>
+    <t>Fats and oils</t>
+  </si>
+  <si>
+    <t>Butter and margarine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salad dressing  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other fats and oils including peanut butter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other foods </t>
+  </si>
+  <si>
+    <t>Soups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen and freeze dried prepared foods  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Snacks  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spices  </t>
+  </si>
+  <si>
+    <t>Baby food</t>
+  </si>
+  <si>
+    <t>Other miscellaneous foods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food away from home </t>
+  </si>
+  <si>
+    <t>Full service meals and snacks</t>
+  </si>
+  <si>
+    <t>Limited service meals and snacks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Food at employee sites and schools  </t>
+  </si>
+  <si>
+    <t>Food from vending machines and mobile vendors</t>
+  </si>
+  <si>
+    <t>Other food away from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcoholic beverages at home </t>
+  </si>
+  <si>
+    <t>Beer</t>
+  </si>
+  <si>
+    <t>Distilled spirits at home</t>
+  </si>
+  <si>
+    <t>Wine at home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alcoholic beverages away from home  </t>
+  </si>
+  <si>
+    <t>Tobacco and smoking products</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cigarettes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tobacco products other than cigarettes  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal care products  </t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>Cosmetics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Personal care services  </t>
+  </si>
+  <si>
+    <t>Haircuts and other personal care services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Miscellaneous personal services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal services  </t>
+  </si>
+  <si>
+    <t>Funeral expenses</t>
+  </si>
+  <si>
+    <t>Laundry and dry cleaning services</t>
+  </si>
+  <si>
+    <t>Apparel services other than laundry and dry cleaning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial services  </t>
+  </si>
+  <si>
+    <t>Miscellaneous personal goods</t>
+  </si>
+  <si>
+    <t>Rent of primary residence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lodging away from home  </t>
+  </si>
+  <si>
+    <t>Housing at school</t>
+  </si>
+  <si>
+    <t>Other lodging away from home including hotels and motels</t>
+  </si>
+  <si>
+    <t>Owners' equivalent rent of residences</t>
+  </si>
+  <si>
+    <t>Owners' equivalent rent of primary residence</t>
+  </si>
+  <si>
+    <t>Tenants' and household insurance</t>
+  </si>
+  <si>
+    <t>Fuel oil and other fuels</t>
+  </si>
+  <si>
+    <t>Fuel oil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Propane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Energy services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Electricity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Utility (piped) gas service </t>
+  </si>
+  <si>
+    <t>Water and sewer and trash collection services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Water and sewerage maintenance  </t>
+  </si>
+  <si>
+    <t>Garbage and trash collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Window and floor coverings and other linens </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Floor coverings </t>
+  </si>
+  <si>
+    <t>Window coverings</t>
+  </si>
+  <si>
+    <t>Other linens</t>
+  </si>
+  <si>
+    <t>Furniture and bedding</t>
+  </si>
+  <si>
+    <t>Bedroom furniture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Living room </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other furniture </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Appliances  </t>
+  </si>
+  <si>
+    <t>Major appliances</t>
+  </si>
+  <si>
+    <t>Other appliances</t>
+  </si>
+  <si>
+    <t>Other household equipment and furnishings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clocks  </t>
+  </si>
+  <si>
+    <t>Indoor plants and flowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dishes and flatware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nonelectric cookware and tableware  </t>
+  </si>
+  <si>
+    <t>Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outdoor equipment and supplies  </t>
+  </si>
+  <si>
+    <t>Housekeeping supplies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Household cleaning products </t>
+  </si>
+  <si>
+    <t>Household paper products</t>
+  </si>
+  <si>
+    <t>Miscellaneous household products</t>
+  </si>
+  <si>
+    <t>Household operations</t>
+  </si>
+  <si>
+    <t>Domestic services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gardening and lawncare services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moving  </t>
+  </si>
+  <si>
+    <t>Repair of household items</t>
+  </si>
+  <si>
+    <t>Professional services</t>
+  </si>
+  <si>
+    <t>Physicians' services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dental services </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eyeglasses and eye care </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Services by other medical professionals </t>
+  </si>
+  <si>
+    <t>Hospital and related services</t>
+  </si>
+  <si>
+    <t>Hospital services</t>
+  </si>
+  <si>
+    <t>Nursing homes and adult day services</t>
+  </si>
+  <si>
+    <t>Care of invalids and elderly at home</t>
+  </si>
+  <si>
+    <t>Health insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medicinal drugs </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prescription drugs  </t>
+  </si>
+  <si>
+    <t>Nonprescription drugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medical equipment and supplies  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video and audio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Televisions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cable and satellite television service  </t>
+  </si>
+  <si>
+    <t>Other video equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video discs and other media </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Audio equipment </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recorded music and music subscriptions  </t>
+  </si>
+  <si>
+    <t>Video and audio products</t>
+  </si>
+  <si>
+    <t>Video and audio services</t>
+  </si>
+  <si>
+    <t>Pets</t>
+  </si>
+  <si>
+    <t>Pets and pet products</t>
+  </si>
+  <si>
+    <t>Pet services including veterinary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sporting goods  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sports vehicles including bicycles  </t>
+  </si>
+  <si>
+    <t>Sports equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photography </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographic equipment and supplies </t>
+  </si>
+  <si>
+    <t>Photographers and film processing</t>
+  </si>
+  <si>
+    <t>Other recreational goods</t>
+  </si>
+  <si>
+    <t>Toys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sewing machines </t>
+  </si>
+  <si>
+    <t>Music instruments and accessories</t>
+  </si>
+  <si>
+    <t>Other recreation services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Club membership for shopping clubs  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admissions  </t>
+  </si>
+  <si>
+    <t>Fees for lessons or instructions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreational reading materials  </t>
+  </si>
+  <si>
+    <t>Newspapers and magazines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recreational books  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New and used motor vehicles </t>
+  </si>
+  <si>
+    <t>New vehicles</t>
+  </si>
+  <si>
+    <t>Used cars and trucks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leased cars and trucks  </t>
+  </si>
+  <si>
+    <t>Car and truck rental</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor fuel  </t>
+  </si>
+  <si>
+    <t>Gasoline (all types)</t>
+  </si>
+  <si>
+    <t>Other motor fuels</t>
+  </si>
+  <si>
+    <t>Motor vehicle parts and equipment</t>
+  </si>
+  <si>
+    <t>Tires</t>
+  </si>
+  <si>
+    <t>Vehicle accessories other than tires</t>
+  </si>
+  <si>
+    <t>Motor vehicle maintenance and repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor vehicle body work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor vehicle maintenance and servicing </t>
+  </si>
+  <si>
+    <t>Motor vehicle repair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor vehicle insurance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Motor vehicle fees  </t>
+  </si>
+  <si>
+    <t>State motor vehicle registration and license fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking and other fees  </t>
+  </si>
+  <si>
+    <t>Public transportation</t>
+  </si>
+  <si>
+    <t>Airline fares</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other intercity transportation  </t>
+  </si>
+  <si>
+    <t>Intracity transportation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">White bread </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bread other than white  </t>
+  </si>
+  <si>
+    <t>Fresh cakes and cupcakes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cookies </t>
+  </si>
+  <si>
+    <t>Fresh sweetrolls</t>
+  </si>
+  <si>
+    <t>Crackers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen and refrigerated bakery products </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bacon and related products  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breakfast sausage and related products  </t>
+  </si>
+  <si>
+    <t>Frankfurters</t>
+  </si>
+  <si>
+    <t>Lamb and organ meats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamb and mutton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lunchmeats  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh whole chicken </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh and frozen chicken parts  </t>
+  </si>
+  <si>
+    <t>Shelf stable fish and seafood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Frozen fish and seafood </t>
+  </si>
+  <si>
+    <t>Fresh whole milk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresh milk other than whole </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butter  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oranges </t>
+  </si>
+  <si>
+    <t>Canned fruits</t>
+  </si>
+  <si>
+    <t>Frozen vegetables</t>
+  </si>
+  <si>
+    <t>Canned vegetables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dried beans </t>
+  </si>
+  <si>
+    <t>Margarine</t>
+  </si>
+  <si>
+    <t>Peanut butter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roasted coffee  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Instant coffee  </t>
+  </si>
+  <si>
+    <t>Salt and other seasonings and spices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Olives  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sauces and gravies  </t>
+  </si>
+  <si>
+    <t>Other condiments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prepared salads </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whiskey at home </t>
+  </si>
+  <si>
+    <t>Distilled spirits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wine away from home </t>
+  </si>
+  <si>
+    <t>Distilled spirits away from home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land-line interstate toll calls </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Land-line intrastate toll calls </t>
+  </si>
+  <si>
+    <t>Laundry equipment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Video game hardware </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stationery  </t>
+  </si>
+  <si>
+    <t>New cars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New cars and trucks </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New trucks  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">New motorcycles </t>
+  </si>
+  <si>
+    <t>Gasoline</t>
+  </si>
+  <si>
+    <t>Motor oil</t>
+  </si>
+  <si>
+    <t>Vehicle parts and equipment other than tires</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parking fees and tolls  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intercity bus fare  </t>
+  </si>
+  <si>
+    <t>Intercity train fare</t>
+  </si>
+  <si>
+    <t>Ship fare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Intracity mass transit  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inpatient hospital services </t>
+  </si>
+  <si>
+    <t>Outpatient hospital services</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film and photographic supplies  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Photographic equipment  </t>
+  </si>
+  <si>
+    <t>Pet food</t>
+  </si>
+  <si>
+    <t>Purchase of pets</t>
+  </si>
+  <si>
+    <t>Automobile service clubs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admission to movies </t>
+  </si>
+  <si>
+    <t>Admission to sporting events</t>
+  </si>
+  <si>
+    <t>Photographer fees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Film processing </t>
+  </si>
+  <si>
+    <t>Pet services</t>
+  </si>
+  <si>
+    <t>Veterinarian services</t>
+  </si>
+  <si>
+    <t>Rental of video discs and other media</t>
+  </si>
+  <si>
+    <t>Checking account and other bank services</t>
+  </si>
+  <si>
+    <t>Tax return preparation and other accounting fees</t>
+  </si>
+  <si>
+    <t>College textbooks</t>
+  </si>
+  <si>
+    <t>Food at elementary and secondary schools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infants' equipment  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Infants' furniture  </t>
+  </si>
+  <si>
+    <t>ITEMS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -617,6 +1777,13 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -684,7 +1851,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -710,6 +1877,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,20 +2160,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="H15" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="H22" sqref="H22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="18.42578125" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1"/>
-    <col min="8" max="8" width="33.28515625" customWidth="1"/>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="83.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="62.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="57" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -1512,7 +2688,7 @@
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="7">
         <v>213</v>
       </c>
@@ -1544,7 +2720,7 @@
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>22</v>
       </c>
@@ -1576,7 +2752,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>23</v>
       </c>
@@ -1608,7 +2784,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="7">
         <v>236</v>
       </c>
@@ -1640,7 +2816,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="7">
         <v>237</v>
       </c>
@@ -1672,7 +2848,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="7">
         <v>238</v>
       </c>
@@ -1704,7 +2880,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
         <v>124</v>
       </c>
@@ -1736,7 +2912,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>125</v>
       </c>
@@ -1767,8 +2943,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="8">
         <v>321</v>
       </c>
@@ -1799,8 +2978,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Wood product manufacturing</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="8">
         <v>327</v>
       </c>
@@ -1831,8 +3013,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Nonmetallic mineral product manufacturing</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="8">
         <v>331</v>
       </c>
@@ -1863,8 +3048,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Primary metal manufacturing</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="8">
         <v>332</v>
       </c>
@@ -1895,8 +3083,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Fabricated metal product manufacturing</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="8">
         <v>333</v>
       </c>
@@ -1927,8 +3118,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Machinery manufacturing</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="8">
         <v>334</v>
       </c>
@@ -1959,8 +3153,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Computer and electronic product manufacturing</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="8">
         <v>335</v>
       </c>
@@ -1991,8 +3188,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Electrical equipment, appliance, and component manufacturing</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>126</v>
       </c>
@@ -2023,8 +3223,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Motor vehicles, bodies and trailers, and parts manufacturing</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>127</v>
       </c>
@@ -2055,8 +3258,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Other transportation equipment manufacturing</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="8">
         <v>337</v>
       </c>
@@ -2087,8 +3293,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Furniture and related product manufacturing</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="8">
         <v>339</v>
       </c>
@@ -2119,8 +3328,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Miscellaneous manufacturing</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
         <v>128</v>
       </c>
@@ -2151,8 +3363,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="8">
         <v>311</v>
       </c>
@@ -2183,8 +3398,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Food manufacturing</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="8">
         <v>312</v>
       </c>
@@ -2215,8 +3433,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Beverage and tobacco product manufacturing</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="8">
         <v>313</v>
       </c>
@@ -2247,8 +3468,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Textile mills</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="8">
         <v>314</v>
       </c>
@@ -2279,8 +3503,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Textile product mills</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="8">
         <v>315</v>
       </c>
@@ -2311,8 +3538,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Apparel manufacturing</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="8">
         <v>316</v>
       </c>
@@ -2343,8 +3573,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Leather and allied product manufacturing</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="8">
         <v>322</v>
       </c>
@@ -2375,8 +3608,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Paper manufacturing</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="8">
         <v>323</v>
       </c>
@@ -2407,8 +3643,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Printing and related support activities</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="8">
         <v>324</v>
       </c>
@@ -2439,8 +3678,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Petroleum and coal products manufacturing</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="8">
         <v>325</v>
       </c>
@@ -2467,12 +3709,15 @@
         <f t="shared" si="4"/>
         <v/>
       </c>
-      <c r="H46" s="8" t="str">
+      <c r="H46" s="20" t="str">
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Chemical manufacturing</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="8">
         <v>326</v>
       </c>
@@ -2503,8 +3748,11 @@
         <f t="shared" si="5"/>
         <v xml:space="preserve">     Plastics and rubber products manufacturing</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>42</v>
       </c>
@@ -2535,8 +3783,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="s">
         <v>129</v>
       </c>
@@ -2567,8 +3818,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="7">
         <v>441</v>
       </c>
@@ -2599,8 +3853,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="7">
         <v>442</v>
       </c>
@@ -2631,8 +3888,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="7">
         <v>443</v>
       </c>
@@ -2663,8 +3923,11 @@
         <f t="shared" si="5"/>
         <v/>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="7">
         <v>444</v>
       </c>
@@ -2696,7 +3959,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="7">
         <v>445</v>
       </c>
@@ -2728,7 +3991,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="7">
         <v>446</v>
       </c>
@@ -2760,7 +4023,7 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="7">
         <v>447</v>
       </c>
@@ -2792,7 +4055,7 @@
         <v/>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="7">
         <v>448</v>
       </c>
@@ -2824,7 +4087,7 @@
         <v/>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="7">
         <v>451</v>
       </c>
@@ -2856,7 +4119,7 @@
         <v/>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="7">
         <v>452</v>
       </c>
@@ -2888,7 +4151,7 @@
         <v/>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="7">
         <v>453</v>
       </c>
@@ -2920,7 +4183,7 @@
         <v/>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="7">
         <v>454</v>
       </c>
@@ -2952,7 +4215,7 @@
         <v/>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="s">
         <v>130</v>
       </c>
@@ -2984,7 +4247,7 @@
         <v/>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="7">
         <v>481</v>
       </c>
@@ -3016,7 +4279,7 @@
         <v/>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="7">
         <v>482</v>
       </c>
@@ -4820,7 +6083,7 @@
   <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A32" sqref="A32:B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5105,4 +6368,2312 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C386"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A248" sqref="A248"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="54.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.85546875" customWidth="1"/>
+    <col min="3" max="3" width="83.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>572</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>191</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>193</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>197</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>198</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>200</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>202</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>204</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>205</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>207</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>208</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>209</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>214</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>215</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>216</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>217</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>218</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>220</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>221</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>223</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>224</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>225</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>226</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="C42" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>228</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>229</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>230</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>232</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>233</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>235</v>
+      </c>
+      <c r="C50" s="7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>236</v>
+      </c>
+      <c r="C51" s="7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>237</v>
+      </c>
+      <c r="C52" s="7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>239</v>
+      </c>
+      <c r="C54" s="7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>240</v>
+      </c>
+      <c r="C55" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>241</v>
+      </c>
+      <c r="C56" s="7" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>242</v>
+      </c>
+      <c r="C57" s="7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>243</v>
+      </c>
+      <c r="C58" s="7" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>244</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>245</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C61" s="7" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>247</v>
+      </c>
+      <c r="C62" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>248</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>250</v>
+      </c>
+      <c r="C65" s="7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>251</v>
+      </c>
+      <c r="C66" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>252</v>
+      </c>
+      <c r="C67" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="C68" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="C69" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="C70" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>256</v>
+      </c>
+      <c r="C71" s="7" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>257</v>
+      </c>
+      <c r="C72" s="7" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>258</v>
+      </c>
+      <c r="C73" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>259</v>
+      </c>
+      <c r="C74" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>260</v>
+      </c>
+      <c r="C75" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>261</v>
+      </c>
+      <c r="C76" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>262</v>
+      </c>
+      <c r="C77" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>263</v>
+      </c>
+      <c r="C78" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C79" s="7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>265</v>
+      </c>
+      <c r="C80" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>266</v>
+      </c>
+      <c r="C81" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>267</v>
+      </c>
+      <c r="C82" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>268</v>
+      </c>
+      <c r="C83" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>269</v>
+      </c>
+      <c r="C84" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>270</v>
+      </c>
+      <c r="C85" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>271</v>
+      </c>
+      <c r="C86" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>272</v>
+      </c>
+      <c r="C87" s="11" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>273</v>
+      </c>
+      <c r="C88" s="7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>274</v>
+      </c>
+      <c r="C89" s="7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>275</v>
+      </c>
+      <c r="C90" s="7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>276</v>
+      </c>
+      <c r="C91" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>277</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>278</v>
+      </c>
+      <c r="C93" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>279</v>
+      </c>
+      <c r="C94" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>280</v>
+      </c>
+      <c r="C95" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>281</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>282</v>
+      </c>
+      <c r="C97" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>284</v>
+      </c>
+      <c r="C99" s="7" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>285</v>
+      </c>
+      <c r="C100" s="7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>286</v>
+      </c>
+      <c r="C101" s="7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>287</v>
+      </c>
+      <c r="C102" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>288</v>
+      </c>
+      <c r="C103" s="7" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>289</v>
+      </c>
+      <c r="C104" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>290</v>
+      </c>
+      <c r="C105" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>291</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>292</v>
+      </c>
+      <c r="C107" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>293</v>
+      </c>
+      <c r="C108" s="7" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>294</v>
+      </c>
+      <c r="C109" s="4" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>295</v>
+      </c>
+      <c r="C110" s="7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>296</v>
+      </c>
+      <c r="C111" s="7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>297</v>
+      </c>
+      <c r="C112" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>298</v>
+      </c>
+      <c r="C113" s="7" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>299</v>
+      </c>
+      <c r="C114" s="9" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>300</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>301</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>302</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>303</v>
+      </c>
+      <c r="C118" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" s="19" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="19" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" s="19" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A330" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A331" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A332" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A333" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A335" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A343" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A345" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A346" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A347" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A348" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A349" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A351" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A354" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A357" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A358" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A359" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A360" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A361" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A362" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A363" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A365" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="19" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A372" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A374" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A377" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A378" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A380" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A383" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A384" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A385" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A386" t="s">
+        <v>571</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:A386"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>